--- a/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
+++ b/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
@@ -877,10 +877,10 @@
     <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="172" formatCode="0.0000"/>
     <numFmt numFmtId="173" formatCode="0.000"/>
-    <numFmt numFmtId="175" formatCode="0.00000"/>
-    <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1857,11 +1857,11 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1920,7 +1920,7 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,9 +1930,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="32" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="36" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3137,7 +3137,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4744,7 +4744,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5830,7 +5830,7 @@
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8660,15 +8660,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" location="BR_A0001" display="BR_A0001"/>
-    <hyperlink ref="F8" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="F9" location="FR_0300_001!A1" display="FR_0300_001!A1"/>
-    <hyperlink ref="F10" location="FR_0300_002!A1" display="FR_0300_002!A1"/>
-    <hyperlink ref="F11" location="FR_0300_003!A1" display="FR_0300_003!A1"/>
-    <hyperlink ref="F12" location="FR_0300_004!A1" display="FR_0300_004!A1"/>
-    <hyperlink ref="F13" location="FR_0300_005!A1" display="FR_0300_005!A1"/>
-    <hyperlink ref="F14" location="FR_0300_006!A1" display="FR_0300_006!A1"/>
-    <hyperlink ref="F15" location="FR_0300_007!A1" display="FR_0300_007!A1"/>
+    <hyperlink ref="F7" location="MS_A0100!A1" display="MS_A0100!A1"/>
+    <hyperlink ref="F8" location="MS_0100_001!A1" display="MS_0100_001!A1"/>
+    <hyperlink ref="F9" location="MS_0100_002!A1" display="MS_0100_002!A1"/>
+    <hyperlink ref="F10" location="MS_0100_003!A1" display="MS_0100_003!A1"/>
+    <hyperlink ref="F11" location="MS_0100_004!A1" display="MS_0100_004!A1"/>
+    <hyperlink ref="F12" location="MS_0100_005!A1" display="MS_0100_005!A1"/>
+    <hyperlink ref="F13" location="MS_0100_006!A1" display="MS_0100_006!A1"/>
+    <hyperlink ref="F14" location="MS_0100_007!A1" display="MS_0100_007!A1"/>
+    <hyperlink ref="F15" location="MS_0100_008!A1" display="MS_0100_008!A1"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
   <pageSetup scale="61" fitToHeight="99" orientation="landscape" r:id="rId1"/>
@@ -8687,9 +8687,7 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10775,9 +10773,7 @@
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11919,7 +11915,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12452,7 +12448,9 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
+++ b/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,8 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\MS - Miscellanous, Finish &amp; Assembly\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D0724D4-73B2-4A37-8F85-4F8614470C89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="216">
   <si>
     <t>University</t>
   </si>
@@ -861,12 +862,15 @@
   <si>
     <t>Material - Aluminum</t>
   </si>
+  <si>
+    <t>Steel, Alloy (kg)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="15">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
@@ -881,6 +885,7 @@
     <numFmt numFmtId="175" formatCode="0.000000"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??????\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1096,26 +1101,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFFCD5B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor rgb="FFFAC090"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFCD5B5"/>
       </patternFill>
     </fill>
   </fills>
@@ -1601,7 +1606,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1729,111 +1734,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="4" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="173" fontId="4" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="11" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="28" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1885,7 +1792,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1897,7 +1803,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1951,23 +1856,124 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="11" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Comma 2" xfId="5"/>
-    <cellStyle name="Cost_Green" xfId="4"/>
-    <cellStyle name="Currency 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Cost_Green" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Currency 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Lien hypertexte" xfId="8" builtinId="8"/>
-    <cellStyle name="Monétaire 2" xfId="3"/>
+    <cellStyle name="Monétaire 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal_Sheet1" xfId="9"/>
-    <cellStyle name="TableStyleLight1" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2779,7 +2785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -3130,19 +3136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
@@ -3166,7 +3173,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3181,14 +3188,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -3198,7 +3205,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -3206,7 +3213,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -3219,7 +3226,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -3228,7 +3235,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -3236,7 +3243,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -3244,7 +3251,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -3254,14 +3261,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -3269,12 +3276,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -3284,7 +3291,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -3297,7 +3304,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -3307,7 +3314,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3328,7 +3335,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3366,46 +3373,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -3421,14 +3428,19 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>0.29625812064000001</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <v>5.4619859999999999E-2</v>
       </c>
       <c r="K11" s="17">
@@ -3459,10 +3471,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>1.2442841066879999</v>
       </c>
@@ -3486,31 +3498,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -3521,20 +3533,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191">
+      <c r="A15" s="149">
         <v>10</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -3555,20 +3567,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <v>127.57</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -3596,10 +3608,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>1.9257</v>
       </c>
@@ -3629,17 +3641,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_004!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_004!A1" display="Drawing" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -3657,7 +3669,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_004!A1" display="FR_0300_003"/>
+    <hyperlink ref="B1" location="MS_0100_004!A1" display="FR_0300_003" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3665,19 +3677,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.21875" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
@@ -3701,7 +3714,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -3716,14 +3729,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -3733,7 +3746,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -3741,7 +3754,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -3754,7 +3767,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -3763,7 +3776,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -3771,7 +3784,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -3779,7 +3792,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -3789,14 +3802,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -3804,12 +3817,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -3819,7 +3832,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -3832,7 +3845,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -3842,7 +3855,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3863,7 +3876,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3901,46 +3914,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -3956,14 +3969,19 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>0.121705604976</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <v>2.2438349E-2</v>
       </c>
       <c r="K11" s="17">
@@ -3994,10 +4012,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>0.51116354089920002</v>
       </c>
@@ -4021,31 +4039,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -4056,20 +4074,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191">
+      <c r="A15" s="149">
         <v>10</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -4090,20 +4108,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <v>98.79</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -4131,10 +4149,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>1.6379000000000001</v>
       </c>
@@ -4164,17 +4182,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_005!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_005!A1" display="Drawing" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4194,7 +4212,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_005!A1" display="FR_0300_004"/>
+    <hyperlink ref="B1" location="MS_0100_005!A1" display="FR_0300_004" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4202,19 +4220,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
@@ -4238,7 +4257,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4253,14 +4272,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -4270,7 +4289,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -4278,7 +4297,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -4291,7 +4310,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -4300,7 +4319,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -4308,7 +4327,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -4316,7 +4335,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -4326,14 +4345,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -4341,12 +4360,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -4356,7 +4375,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -4369,7 +4388,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -4379,7 +4398,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4400,7 +4419,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4438,46 +4457,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -4493,8 +4512,13 @@
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>1.3688939899999999</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
@@ -4531,10 +4555,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>3.0800114774999998</v>
       </c>
@@ -4558,31 +4582,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -4593,20 +4617,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="193">
+      <c r="A15" s="151">
         <v>10</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="193"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -4627,20 +4651,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <v>143.93600000000001</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -4668,10 +4692,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>2.0893600000000001</v>
       </c>
@@ -4701,17 +4725,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_006!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_006!A1" display="Drawing" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -4729,7 +4753,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_006!A1" display="FR_0300_005"/>
+    <hyperlink ref="B1" location="MS_0100_006!A1" display="FR_0300_005" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4737,9 +4761,9 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -4750,6 +4774,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.109375" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -4775,7 +4800,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -4790,14 +4815,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -4807,7 +4832,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -4815,7 +4840,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -4828,7 +4853,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -4837,7 +4862,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -4845,7 +4870,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -4853,7 +4878,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -4863,14 +4888,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -4878,12 +4903,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -4893,7 +4918,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -4906,7 +4931,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -4916,7 +4941,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4937,7 +4962,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4975,46 +5000,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -5024,26 +5049,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>4.375228906464179E-3</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <f>0.000343295+PI()*0.003*0.003</f>
         <v>3.7156933388230817E-4</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="27">
@@ -5071,10 +5099,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>9.8442650395444021E-3</v>
       </c>
@@ -5098,31 +5126,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -5133,20 +5161,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191">
+      <c r="A15" s="149">
         <v>10</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -5167,20 +5195,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="159">
+      <c r="A16" s="118">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="159"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <v>9.42</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -5208,10 +5236,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>0.60760000000000003</v>
       </c>
@@ -5241,8 +5269,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_007!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_007!A1" display="Drawing" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5250,9 +5278,9 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -5270,7 +5298,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_007!A1" display="FR_0300_006"/>
+    <hyperlink ref="B1" location="MS_0100_007!A1" display="FR_0300_006" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5278,19 +5306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H17" activeCellId="11" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12 N12 A14:I14 I17 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -5315,7 +5344,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5330,14 +5359,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -5347,7 +5376,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -5355,7 +5384,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -5368,7 +5397,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -5377,7 +5406,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -5385,7 +5414,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -5393,7 +5422,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -5403,14 +5432,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>163</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -5418,12 +5447,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -5433,7 +5462,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -5446,7 +5475,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -5456,7 +5485,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -5477,7 +5506,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -5515,46 +5544,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -5564,26 +5593,29 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="28">
         <v>2.25</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>5.4315052814641789E-3</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <f>0.000433+PI()*0.003*0.003</f>
         <v>4.6127433388230816E-4</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="L11" s="27">
@@ -5611,10 +5643,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>1.22208868832944E-2</v>
       </c>
@@ -5638,31 +5670,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -5673,20 +5705,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191">
+      <c r="A15" s="149">
         <v>10</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
@@ -5707,20 +5739,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <v>10.42</v>
       </c>
       <c r="G16" s="23" t="s">
@@ -5748,10 +5780,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>0.63759999999999994</v>
       </c>
@@ -5781,22 +5813,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_008!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_008!A1" display="Drawing" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5811,7 +5843,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_008!A1" display="FR_0300_007"/>
+    <hyperlink ref="B1" location="MS_0100_008!A1" display="FR_0300_007" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5819,18 +5851,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5953,490 +5985,490 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="94" t="str">
+      <c r="A7" s="156"/>
+      <c r="B7" s="157" t="str">
         <f>MS_A0100!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C7" s="95" t="str">
+      <c r="C7" s="158" t="str">
         <f>MS_A0100</f>
         <v>MS_A0100</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96" t="str">
+      <c r="E7" s="158"/>
+      <c r="F7" s="159" t="str">
         <f>MS_A0100!B4</f>
         <v>Firewall</v>
       </c>
-      <c r="G7" s="95"/>
-      <c r="H7" s="97">
+      <c r="G7" s="158"/>
+      <c r="H7" s="160">
         <f t="shared" ref="H7:H15" si="0">SUM(J7:M7)</f>
         <v>67.316034457958992</v>
       </c>
-      <c r="I7" s="98">
+      <c r="I7" s="161">
         <f>MS_A0100_q</f>
         <v>1</v>
       </c>
-      <c r="J7" s="99">
+      <c r="J7" s="162">
         <f>MS_A0100_m</f>
         <v>0.28615999999999997</v>
       </c>
-      <c r="K7" s="99">
+      <c r="K7" s="162">
         <f>MS_A0100_p</f>
         <v>54.470233999999991</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="162">
         <f>MS_A0100_f</f>
         <v>3.2263071246256692</v>
       </c>
-      <c r="M7" s="99">
+      <c r="M7" s="162">
         <f>MS_A0100_t</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="N7" s="100">
+      <c r="N7" s="163">
         <f t="shared" ref="N7:N15" si="1">H7*I7</f>
         <v>67.316034457958992</v>
       </c>
-      <c r="O7" s="101"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103" t="str">
+      <c r="A8" s="165"/>
+      <c r="B8" s="166" t="str">
         <f>MS_A0100!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C8" s="104" t="str">
+      <c r="C8" s="174" t="str">
         <f>MS_0100_001</f>
         <v>MS_0100_001</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="105" t="str">
+      <c r="E8" s="167" t="str">
         <f>$F$7</f>
         <v>Firewall</v>
       </c>
-      <c r="F8" s="106" t="str">
+      <c r="F8" s="168" t="str">
         <f>MS_0100_001!B5</f>
         <v>Firewall Up</v>
       </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="107">
+      <c r="G8" s="167"/>
+      <c r="H8" s="169">
         <f t="shared" si="0"/>
         <v>9.2651947324861545</v>
       </c>
-      <c r="I8" s="108">
+      <c r="I8" s="170">
         <f>MS_A0100_q*MS_0100_001_q</f>
         <v>1</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="171">
         <f>MS_0100_001_m</f>
         <v>4.9527965088000006</v>
       </c>
-      <c r="K8" s="109">
+      <c r="K8" s="171">
         <f>MS_0100_001_p</f>
         <v>4.3123982236861549</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="171">
         <v>0</v>
       </c>
-      <c r="M8" s="109">
+      <c r="M8" s="171">
         <v>0</v>
       </c>
-      <c r="N8" s="110">
+      <c r="N8" s="172">
         <f t="shared" si="1"/>
         <v>9.2651947324861545</v>
       </c>
-      <c r="O8" s="111"/>
+      <c r="O8" s="173"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="102"/>
-      <c r="B9" s="103" t="str">
+      <c r="A9" s="165"/>
+      <c r="B9" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C9" s="105" t="str">
+      <c r="C9" s="167" t="str">
         <f>MS_0100_002</f>
         <v>MS_0100_002</v>
       </c>
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="105" t="str">
+      <c r="E9" s="167" t="str">
         <f t="shared" ref="E9:E15" si="2">$F$7</f>
         <v>Firewall</v>
       </c>
-      <c r="F9" s="106" t="str">
+      <c r="F9" s="168" t="str">
         <f>MS_0100_002!B5</f>
         <v>Firewall Middle</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="107">
+      <c r="G9" s="167"/>
+      <c r="H9" s="169">
         <f t="shared" si="0"/>
         <v>7.5426952828861555</v>
       </c>
-      <c r="I9" s="112">
+      <c r="I9" s="175">
         <f>MS_A0100_q*MS_0100_002_q</f>
         <v>1</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="171">
         <f>MS_0100_002_m</f>
         <v>4.2952970592000002</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="171">
         <f>MS_0100_002_p</f>
         <v>3.2473982236861549</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="171">
         <v>0</v>
       </c>
-      <c r="M9" s="109">
+      <c r="M9" s="171">
         <v>0</v>
       </c>
-      <c r="N9" s="110">
+      <c r="N9" s="172">
         <f t="shared" si="1"/>
         <v>7.5426952828861555</v>
       </c>
-      <c r="O9" s="111"/>
+      <c r="O9" s="173"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="102"/>
-      <c r="B10" s="103" t="str">
+      <c r="A10" s="165"/>
+      <c r="B10" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C10" s="105" t="str">
+      <c r="C10" s="167" t="str">
         <f>MS_0100_003</f>
         <v>MS_0100_003</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="105" t="str">
+      <c r="E10" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F10" s="156" t="str">
+      <c r="F10" s="176" t="str">
         <f>MS_0100_003!B5</f>
         <v>Firewall Bottom</v>
       </c>
-      <c r="G10" s="105"/>
-      <c r="H10" s="107">
+      <c r="G10" s="167"/>
+      <c r="H10" s="169">
         <f t="shared" si="0"/>
         <v>11.141555750086155</v>
       </c>
-      <c r="I10" s="108">
+      <c r="I10" s="170">
         <f>MS_A0100_q*MS_0100_003_q</f>
         <v>1</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="171">
         <f>MS_0100_003_m</f>
         <v>6.828157526400001</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="171">
         <f>MS_0100_003_p</f>
         <v>4.3133982236861552</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="171">
         <v>0</v>
       </c>
-      <c r="M10" s="109">
+      <c r="M10" s="171">
         <v>0</v>
       </c>
-      <c r="N10" s="110">
+      <c r="N10" s="172">
         <f t="shared" si="1"/>
         <v>11.141555750086155</v>
       </c>
-      <c r="O10" s="111"/>
+      <c r="O10" s="173"/>
     </row>
     <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
-      <c r="B11" s="103" t="str">
+      <c r="A11" s="165"/>
+      <c r="B11" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C11" s="105" t="str">
+      <c r="C11" s="167" t="str">
         <f>MS_0100_004</f>
         <v>MS_0100_004</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="105" t="str">
+      <c r="E11" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F11" s="106" t="str">
+      <c r="F11" s="168" t="str">
         <f>MS_0100_004!B5</f>
         <v>Firewall Upper Side</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="107">
+      <c r="G11" s="167"/>
+      <c r="H11" s="169">
         <f t="shared" si="0"/>
         <v>3.1699841066880001</v>
       </c>
-      <c r="I11" s="108">
+      <c r="I11" s="170">
         <f>MS_A0100_q*MS_0100_004_q</f>
         <v>2</v>
       </c>
-      <c r="J11" s="109">
+      <c r="J11" s="171">
         <f>MS_0100_004_m</f>
         <v>1.2442841066879999</v>
       </c>
-      <c r="K11" s="109">
+      <c r="K11" s="171">
         <f>MS_0100_004_p</f>
         <v>1.9257</v>
       </c>
-      <c r="L11" s="109">
+      <c r="L11" s="171">
         <v>0</v>
       </c>
-      <c r="M11" s="109">
+      <c r="M11" s="171">
         <v>0</v>
       </c>
-      <c r="N11" s="110">
+      <c r="N11" s="172">
         <f t="shared" si="1"/>
         <v>6.3399682133760003</v>
       </c>
-      <c r="O11" s="111"/>
+      <c r="O11" s="173"/>
     </row>
     <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="102"/>
-      <c r="B12" s="103" t="str">
+      <c r="A12" s="165"/>
+      <c r="B12" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C12" s="105" t="str">
+      <c r="C12" s="167" t="str">
         <f>MS_0100_005</f>
         <v>MS_0100_005</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="105" t="str">
+      <c r="E12" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F12" s="106" t="str">
+      <c r="F12" s="168" t="str">
         <f>MS_0100_005!B5</f>
         <v>Firewall Middle Side</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="107">
+      <c r="G12" s="167"/>
+      <c r="H12" s="169">
         <f t="shared" si="0"/>
         <v>2.1490635408992</v>
       </c>
-      <c r="I12" s="108">
+      <c r="I12" s="170">
         <f>MS_A0100_q*MS_0100_005_q</f>
         <v>2</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="171">
         <f>MS_0100_005_m</f>
         <v>0.51116354089920002</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="171">
         <f>MS_0100_005_p</f>
         <v>1.6379000000000001</v>
       </c>
-      <c r="L12" s="109">
+      <c r="L12" s="171">
         <v>0</v>
       </c>
-      <c r="M12" s="109">
+      <c r="M12" s="171">
         <v>0</v>
       </c>
-      <c r="N12" s="110">
+      <c r="N12" s="172">
         <f t="shared" si="1"/>
         <v>4.2981270817984001</v>
       </c>
-      <c r="O12" s="111"/>
+      <c r="O12" s="173"/>
     </row>
     <row r="13" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103" t="str">
+      <c r="A13" s="165"/>
+      <c r="B13" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C13" s="105" t="str">
+      <c r="C13" s="167" t="str">
         <f>MS_0100_006</f>
         <v>MS_0100_006</v>
       </c>
-      <c r="D13" s="105" t="s">
+      <c r="D13" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="105" t="str">
+      <c r="E13" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F13" s="106" t="str">
+      <c r="F13" s="168" t="str">
         <f>MS_0100_006!B5</f>
         <v>Firewall Lower Side</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="107">
+      <c r="G13" s="167"/>
+      <c r="H13" s="169">
         <f t="shared" si="0"/>
         <v>5.1693714775000004</v>
       </c>
-      <c r="I13" s="108">
+      <c r="I13" s="170">
         <f>MS_A0100_q*MS_0100_006_q</f>
         <v>2</v>
       </c>
-      <c r="J13" s="109">
+      <c r="J13" s="171">
         <f>MS_0100_006_m</f>
         <v>3.0800114774999998</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="171">
         <f>MS_0100_006_p</f>
         <v>2.0893600000000001</v>
       </c>
-      <c r="L13" s="109">
+      <c r="L13" s="171">
         <v>0</v>
       </c>
-      <c r="M13" s="109">
+      <c r="M13" s="171">
         <v>0</v>
       </c>
-      <c r="N13" s="110">
+      <c r="N13" s="172">
         <f t="shared" si="1"/>
         <v>10.338742955000001</v>
       </c>
-      <c r="O13" s="111"/>
+      <c r="O13" s="173"/>
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103" t="str">
+      <c r="A14" s="165"/>
+      <c r="B14" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C14" s="105" t="str">
+      <c r="C14" s="167" t="str">
         <f>MS_0100_007</f>
         <v>MS_0100_007</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="105" t="str">
+      <c r="E14" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F14" s="106" t="str">
+      <c r="F14" s="168" t="str">
         <f>MS_0100_007!B5</f>
         <v>Firewall Up Bracket</v>
       </c>
-      <c r="G14" s="105"/>
-      <c r="H14" s="107">
+      <c r="G14" s="167"/>
+      <c r="H14" s="169">
         <f t="shared" si="0"/>
         <v>0.61744426503954442</v>
       </c>
-      <c r="I14" s="108">
+      <c r="I14" s="170">
         <f>MS_A0100_q*MS_0100_007_q</f>
         <v>4</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="171">
         <f>MS_0100_007_m</f>
         <v>9.8442650395444021E-3</v>
       </c>
-      <c r="K14" s="109">
+      <c r="K14" s="171">
         <f>MS_0100_007_p</f>
         <v>0.60760000000000003</v>
       </c>
-      <c r="L14" s="109">
+      <c r="L14" s="171">
         <v>0</v>
       </c>
-      <c r="M14" s="109">
+      <c r="M14" s="171">
         <v>0</v>
       </c>
-      <c r="N14" s="110">
+      <c r="N14" s="172">
         <f t="shared" si="1"/>
         <v>2.4697770601581777</v>
       </c>
-      <c r="O14" s="111"/>
+      <c r="O14" s="173"/>
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103" t="str">
+      <c r="A15" s="165"/>
+      <c r="B15" s="166" t="str">
         <f>MS_A0100!$B$3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C15" s="105" t="str">
+      <c r="C15" s="167" t="str">
         <f>MS_0100_008</f>
         <v>MS_0100_008</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="105" t="str">
+      <c r="E15" s="167" t="str">
         <f t="shared" si="2"/>
         <v>Firewall</v>
       </c>
-      <c r="F15" s="106" t="str">
+      <c r="F15" s="168" t="str">
         <f>MS_0100_008!B5</f>
         <v>Firewall Middle, Bottom and Sides Bracket</v>
       </c>
-      <c r="G15" s="113"/>
-      <c r="H15" s="107">
+      <c r="G15" s="177"/>
+      <c r="H15" s="169">
         <f t="shared" si="0"/>
         <v>0.64982088688329431</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="170">
         <f>MS_A0100_q*MS_0100_008_q</f>
         <v>24</v>
       </c>
-      <c r="J15" s="109">
+      <c r="J15" s="171">
         <f>MS_0100_008_m</f>
         <v>1.22208868832944E-2</v>
       </c>
-      <c r="K15" s="109">
+      <c r="K15" s="171">
         <f>MS_0100_008_p</f>
         <v>0.63759999999999994</v>
       </c>
-      <c r="L15" s="109">
+      <c r="L15" s="171">
         <v>0</v>
       </c>
-      <c r="M15" s="109">
+      <c r="M15" s="171">
         <v>0</v>
       </c>
-      <c r="N15" s="110">
+      <c r="N15" s="172">
         <f t="shared" si="1"/>
         <v>15.595701285199063</v>
       </c>
-      <c r="O15" s="111"/>
+      <c r="O15" s="173"/>
     </row>
     <row r="16" spans="1:15" s="7" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150" t="str">
+      <c r="A16" s="109"/>
+      <c r="B16" s="110" t="str">
         <f>MS_A0100!B3</f>
         <v>Frame and Body</v>
       </c>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="150" t="s">
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="151"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="154">
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114">
         <f>SUMPRODUCT($I7:$I15,J7:J15)</f>
         <v>26.366007689931642</v>
       </c>
-      <c r="K16" s="154">
+      <c r="K16" s="114">
         <f>SUMPRODUCT($I7:$I15,K7:K15)</f>
         <v>95.382148671058445</v>
       </c>
-      <c r="L16" s="154">
+      <c r="L16" s="114">
         <f>SUMPRODUCT($I7:$I15,L7:L15)</f>
         <v>3.2263071246256692</v>
       </c>
-      <c r="M16" s="154">
+      <c r="M16" s="114">
         <f>SUMPRODUCT($I7:$I15,M7:M15)</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="N16" s="154">
+      <c r="N16" s="114">
         <f>SUM(N7:N15)</f>
         <v>134.3077968189491</v>
       </c>
-      <c r="O16" s="155"/>
+      <c r="O16" s="115"/>
     </row>
     <row r="17" spans="1:14" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -8660,15 +8692,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="F8" location="MS_0100_001!A1" display="MS_0100_001!A1"/>
-    <hyperlink ref="F9" location="MS_0100_002!A1" display="MS_0100_002!A1"/>
-    <hyperlink ref="F10" location="MS_0100_003!A1" display="MS_0100_003!A1"/>
-    <hyperlink ref="F11" location="MS_0100_004!A1" display="MS_0100_004!A1"/>
-    <hyperlink ref="F12" location="MS_0100_005!A1" display="MS_0100_005!A1"/>
-    <hyperlink ref="F13" location="MS_0100_006!A1" display="MS_0100_006!A1"/>
-    <hyperlink ref="F14" location="MS_0100_007!A1" display="MS_0100_007!A1"/>
-    <hyperlink ref="F15" location="MS_0100_008!A1" display="MS_0100_008!A1"/>
+    <hyperlink ref="F7" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" location="MS_0100_001!A1" display="MS_0100_001!A1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F9" location="MS_0100_002!A1" display="MS_0100_002!A1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F10" location="MS_0100_003!A1" display="MS_0100_003!A1" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F11" location="MS_0100_004!A1" display="MS_0100_004!A1" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F12" location="MS_0100_005!A1" display="MS_0100_005!A1" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F13" location="MS_0100_006!A1" display="MS_0100_006!A1" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F14" location="MS_0100_007!A1" display="MS_0100_007!A1" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F15" location="MS_0100_008!A1" display="MS_0100_008!A1" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
   <pageSetup scale="61" fitToHeight="99" orientation="landscape" r:id="rId1"/>
@@ -8680,14 +8712,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF66CC"/>
+    <tabColor theme="7" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C86" sqref="C85:C86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8724,7 +8758,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="188" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -8739,14 +8773,14 @@
       <c r="G2" s="53"/>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="188" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="188" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="85">
@@ -8756,7 +8790,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="188" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -8772,7 +8806,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="87" t="s">
+      <c r="M3" s="188" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -8781,7 +8815,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="188" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="54" t="s">
@@ -8794,7 +8828,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="189" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -8804,7 +8838,7 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="188" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -8817,12 +8851,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="189" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="188" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -8832,7 +8866,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="188" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -8845,7 +8879,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="90" t="s">
+      <c r="J6" s="189" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -8855,7 +8889,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="188" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -8893,19 +8927,19 @@
       <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="87" t="s">
+      <c r="E9" s="188" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="53"/>
@@ -8923,14 +8957,14 @@
       <c r="A10" s="13">
         <v>10</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="128" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="87">
         <f>MS_0100_001!N2</f>
         <v>9.2651947324861545</v>
       </c>
-      <c r="D10" s="148">
+      <c r="D10" s="108">
         <f>MS_0100_001_q</f>
         <v>1</v>
       </c>
@@ -8953,10 +8987,10 @@
       <c r="A11" s="13">
         <v>20</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="87">
         <f>MS_0100_002!N2</f>
         <v>7.5426952828861555</v>
       </c>
@@ -8983,10 +9017,10 @@
       <c r="A12" s="13">
         <v>30</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="87">
         <f>MS_0100_003!N2</f>
         <v>11.141555750086155</v>
       </c>
@@ -9013,10 +9047,10 @@
       <c r="A13" s="13">
         <v>40</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="124">
+      <c r="C13" s="87">
         <f>MS_0100_004!N2</f>
         <v>3.1699841066880001</v>
       </c>
@@ -9043,10 +9077,10 @@
       <c r="A14" s="13">
         <v>50</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="87">
         <f>MS_0100_005!N2</f>
         <v>2.1490635408992</v>
       </c>
@@ -9073,10 +9107,10 @@
       <c r="A15" s="13">
         <v>60</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="C15" s="124">
+      <c r="C15" s="87">
         <f>MS_0100_006!N2</f>
         <v>5.1693714775000004</v>
       </c>
@@ -9103,10 +9137,10 @@
       <c r="A16" s="13">
         <v>70</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="87">
         <f>MS_0100_007!N2</f>
         <v>0.61744426503954442</v>
       </c>
@@ -9133,10 +9167,10 @@
       <c r="A17" s="13">
         <v>80</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="106" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="124">
+      <c r="C17" s="87">
         <f>MS_0100_008!N2</f>
         <v>0.64982088688329431</v>
       </c>
@@ -9161,12 +9195,12 @@
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60"/>
-      <c r="B18" s="126"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="53"/>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="192">
         <f>SUM(E10:E17)</f>
         <v>66.991762360990094</v>
       </c>
@@ -9183,7 +9217,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
-      <c r="B19" s="128"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
@@ -9199,151 +9233,151 @@
       <c r="O19" s="59"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="193" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="127" t="s">
+      <c r="D20" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="87" t="s">
+      <c r="H20" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I20" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="87" t="s">
+      <c r="J20" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="87" t="s">
+      <c r="K20" s="188" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="87" t="s">
+      <c r="L20" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="87" t="s">
+      <c r="M20" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="188" t="s">
         <v>18</v>
       </c>
       <c r="O20" s="59"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="172">
+      <c r="A21" s="130">
         <v>10</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D21" s="131">
         <v>10</v>
       </c>
-      <c r="E21" s="179">
+      <c r="E21" s="137">
         <f>4*0.001022</f>
         <v>4.0879999999999996E-3</v>
       </c>
-      <c r="F21" s="172" t="s">
+      <c r="F21" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="G21" s="172"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="186">
+      <c r="G21" s="130"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="144">
         <f>E21</f>
         <v>4.0879999999999996E-3</v>
       </c>
-      <c r="N21" s="132">
+      <c r="N21" s="92">
         <f t="shared" ref="N21:N23" si="1">M21*D21</f>
         <v>4.088E-2</v>
       </c>
       <c r="O21" s="59"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="172">
+      <c r="A22" s="130">
         <v>20</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="130" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="173">
+      <c r="D22" s="131">
         <v>10</v>
       </c>
-      <c r="E22" s="198">
+      <c r="E22" s="154">
         <f>24*0.001022</f>
         <v>2.4527999999999998E-2</v>
       </c>
-      <c r="F22" s="172" t="s">
+      <c r="F22" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="G22" s="172"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="185">
+      <c r="G22" s="130"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="143">
         <f>E22</f>
         <v>2.4527999999999998E-2</v>
       </c>
-      <c r="N22" s="132">
+      <c r="N22" s="92">
         <f t="shared" si="1"/>
         <v>0.24527999999999997</v>
       </c>
       <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="164">
+      <c r="A23" s="122">
         <v>30</v>
       </c>
-      <c r="B23" s="161" t="s">
+      <c r="B23" s="120" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="164" t="s">
+      <c r="C23" s="122" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="165">
+      <c r="D23" s="123">
         <v>0</v>
       </c>
-      <c r="E23" s="180">
+      <c r="E23" s="138">
         <v>5</v>
       </c>
-      <c r="F23" s="164" t="s">
+      <c r="F23" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="187">
+      <c r="G23" s="122"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="145">
         <v>5</v>
       </c>
-      <c r="N23" s="165">
+      <c r="N23" s="123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9362,10 +9396,10 @@
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
-      <c r="M24" s="162" t="s">
+      <c r="M24" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="92">
+      <c r="N24" s="196">
         <f>SUM(N21:N23)</f>
         <v>0.28615999999999997</v>
       </c>
@@ -9389,31 +9423,31 @@
       <c r="O25" s="59"/>
     </row>
     <row r="26" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="87" t="s">
+      <c r="E26" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="87" t="s">
+      <c r="F26" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="188" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="20"/>
@@ -9493,7 +9527,7 @@
       <c r="A29" s="68">
         <v>30</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="95" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="68" t="s">
@@ -9505,7 +9539,7 @@
       <c r="E29" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="178">
+      <c r="F29" s="136">
         <f>4*0.001022</f>
         <v>4.0879999999999996E-3</v>
       </c>
@@ -9526,7 +9560,7 @@
       <c r="A30" s="68">
         <v>40</v>
       </c>
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="95" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="68" t="s">
@@ -9538,7 +9572,7 @@
       <c r="E30" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="181">
+      <c r="F30" s="139">
         <f>24*0.001022</f>
         <v>2.4527999999999998E-2</v>
       </c>
@@ -9589,22 +9623,22 @@
       <c r="A32" s="68">
         <v>60</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="130" t="s">
+      <c r="C32" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="D32" s="132">
+      <c r="D32" s="92">
         <v>0.75</v>
       </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="133">
+      <c r="E32" s="90"/>
+      <c r="F32" s="93">
         <v>4</v>
       </c>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="132">
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="92">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -9619,22 +9653,22 @@
       <c r="A33" s="68">
         <v>70</v>
       </c>
-      <c r="B33" s="182" t="s">
+      <c r="B33" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="D33" s="165">
+      <c r="D33" s="123">
         <v>0.25</v>
       </c>
-      <c r="E33" s="164"/>
-      <c r="F33" s="158">
+      <c r="E33" s="122"/>
+      <c r="F33" s="117">
         <v>4</v>
       </c>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165">
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -9658,13 +9692,13 @@
       <c r="D34" s="69">
         <v>0.38</v>
       </c>
-      <c r="E34" s="164"/>
-      <c r="F34" s="158">
+      <c r="E34" s="122"/>
+      <c r="F34" s="117">
         <v>4</v>
       </c>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165">
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123">
         <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
@@ -9679,22 +9713,22 @@
       <c r="A35" s="68">
         <v>90</v>
       </c>
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="130" t="s">
+      <c r="C35" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="132">
+      <c r="D35" s="92">
         <v>0.75</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="158">
+      <c r="E35" s="122"/>
+      <c r="F35" s="117">
         <v>4</v>
       </c>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="165">
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="123">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -9709,22 +9743,22 @@
       <c r="A36" s="68">
         <v>100</v>
       </c>
-      <c r="B36" s="182" t="s">
+      <c r="B36" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="164" t="s">
+      <c r="C36" s="122" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="165">
+      <c r="D36" s="123">
         <v>0.25</v>
       </c>
-      <c r="E36" s="164"/>
-      <c r="F36" s="158">
+      <c r="E36" s="122"/>
+      <c r="F36" s="117">
         <v>4</v>
       </c>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="165">
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -9748,13 +9782,13 @@
       <c r="D37" s="69">
         <v>0.38</v>
       </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="158">
+      <c r="E37" s="122"/>
+      <c r="F37" s="117">
         <v>4</v>
       </c>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="165">
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="123">
         <f t="shared" si="2"/>
         <v>1.52</v>
       </c>
@@ -9769,22 +9803,22 @@
       <c r="A38" s="68">
         <v>120</v>
       </c>
-      <c r="B38" s="131" t="s">
+      <c r="B38" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="132">
+      <c r="D38" s="92">
         <v>0.75</v>
       </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="158">
+      <c r="E38" s="122"/>
+      <c r="F38" s="117">
         <v>4</v>
       </c>
-      <c r="G38" s="164"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="165">
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="123">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -9799,22 +9833,22 @@
       <c r="A39" s="68">
         <v>130</v>
       </c>
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="164" t="s">
+      <c r="C39" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="165">
+      <c r="D39" s="123">
         <v>0.25</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="158">
+      <c r="E39" s="122"/>
+      <c r="F39" s="117">
         <v>4</v>
       </c>
-      <c r="G39" s="164"/>
-      <c r="H39" s="164"/>
-      <c r="I39" s="165">
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="123">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -9838,13 +9872,13 @@
       <c r="D40" s="69">
         <v>0.06</v>
       </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="158">
+      <c r="E40" s="122"/>
+      <c r="F40" s="117">
         <v>3</v>
       </c>
-      <c r="G40" s="164"/>
-      <c r="H40" s="164"/>
-      <c r="I40" s="165">
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -9859,22 +9893,22 @@
       <c r="A41" s="68">
         <v>150</v>
       </c>
-      <c r="B41" s="131" t="s">
+      <c r="B41" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C41" s="130" t="s">
+      <c r="C41" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="D41" s="132">
+      <c r="D41" s="92">
         <v>0.75</v>
       </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="158">
+      <c r="E41" s="122"/>
+      <c r="F41" s="117">
         <v>3</v>
       </c>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="165">
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="123">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
@@ -9889,22 +9923,22 @@
       <c r="A42" s="68">
         <v>160</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="164" t="s">
+      <c r="C42" s="122" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="165">
+      <c r="D42" s="123">
         <v>0.25</v>
       </c>
-      <c r="E42" s="164"/>
-      <c r="F42" s="158">
+      <c r="E42" s="122"/>
+      <c r="F42" s="117">
         <v>3</v>
       </c>
-      <c r="G42" s="164"/>
-      <c r="H42" s="164"/>
-      <c r="I42" s="165">
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="123">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -9928,13 +9962,13 @@
       <c r="D43" s="69">
         <v>0.06</v>
       </c>
-      <c r="E43" s="164"/>
-      <c r="F43" s="158">
+      <c r="E43" s="122"/>
+      <c r="F43" s="117">
         <v>2</v>
       </c>
-      <c r="G43" s="164"/>
-      <c r="H43" s="164"/>
-      <c r="I43" s="165">
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="123">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
@@ -9949,22 +9983,22 @@
       <c r="A44" s="68">
         <v>180</v>
       </c>
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="132">
+      <c r="D44" s="92">
         <v>0.75</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="158">
+      <c r="E44" s="122"/>
+      <c r="F44" s="117">
         <v>2</v>
       </c>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="165">
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="123">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -9979,22 +10013,22 @@
       <c r="A45" s="68">
         <v>190</v>
       </c>
-      <c r="B45" s="182" t="s">
+      <c r="B45" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="164" t="s">
+      <c r="C45" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="165">
+      <c r="D45" s="123">
         <v>0.25</v>
       </c>
-      <c r="E45" s="164"/>
-      <c r="F45" s="158">
+      <c r="E45" s="122"/>
+      <c r="F45" s="117">
         <v>2</v>
       </c>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="165">
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="123">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -10018,13 +10052,13 @@
       <c r="D46" s="69">
         <v>0.06</v>
       </c>
-      <c r="E46" s="164"/>
-      <c r="F46" s="158">
+      <c r="E46" s="122"/>
+      <c r="F46" s="117">
         <v>3</v>
       </c>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="165">
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="123">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -10039,22 +10073,22 @@
       <c r="A47" s="68">
         <v>210</v>
       </c>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="130" t="s">
+      <c r="C47" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="132">
+      <c r="D47" s="92">
         <v>0.75</v>
       </c>
-      <c r="E47" s="164"/>
-      <c r="F47" s="158">
+      <c r="E47" s="122"/>
+      <c r="F47" s="117">
         <v>3</v>
       </c>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="165">
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="123">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
@@ -10069,22 +10103,22 @@
       <c r="A48" s="68">
         <v>220</v>
       </c>
-      <c r="B48" s="183" t="s">
+      <c r="B48" s="141" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="172" t="s">
+      <c r="C48" s="130" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="173">
+      <c r="D48" s="131">
         <v>0.25</v>
       </c>
-      <c r="E48" s="172"/>
-      <c r="F48" s="184">
+      <c r="E48" s="130"/>
+      <c r="F48" s="142">
         <v>3</v>
       </c>
-      <c r="G48" s="172"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="173">
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="131">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -10102,19 +10136,19 @@
       <c r="B49" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C49" s="164" t="s">
+      <c r="C49" s="122" t="s">
         <v>199</v>
       </c>
-      <c r="D49" s="165">
+      <c r="D49" s="123">
         <v>0.06</v>
       </c>
-      <c r="E49" s="164"/>
-      <c r="F49" s="158">
+      <c r="E49" s="122"/>
+      <c r="F49" s="117">
         <v>3</v>
       </c>
-      <c r="G49" s="164"/>
-      <c r="H49" s="164"/>
-      <c r="I49" s="173">
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="131">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -10129,22 +10163,22 @@
       <c r="A50" s="68">
         <v>240</v>
       </c>
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="164" t="s">
+      <c r="C50" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="165">
+      <c r="D50" s="123">
         <v>0.75</v>
       </c>
-      <c r="E50" s="164"/>
-      <c r="F50" s="158">
+      <c r="E50" s="122"/>
+      <c r="F50" s="117">
         <v>3</v>
       </c>
-      <c r="G50" s="164"/>
-      <c r="H50" s="164"/>
-      <c r="I50" s="173">
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="131">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
@@ -10159,22 +10193,22 @@
       <c r="A51" s="68">
         <v>250</v>
       </c>
-      <c r="B51" s="182" t="s">
+      <c r="B51" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="164" t="s">
+      <c r="C51" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="165">
+      <c r="D51" s="123">
         <v>0.25</v>
       </c>
-      <c r="E51" s="164"/>
-      <c r="F51" s="158">
+      <c r="E51" s="122"/>
+      <c r="F51" s="117">
         <v>3</v>
       </c>
-      <c r="G51" s="164"/>
-      <c r="H51" s="164"/>
-      <c r="I51" s="173">
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="131">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -10192,19 +10226,19 @@
       <c r="B52" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="164" t="s">
+      <c r="C52" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="D52" s="165">
+      <c r="D52" s="123">
         <v>0.06</v>
       </c>
-      <c r="E52" s="164"/>
-      <c r="F52" s="158">
+      <c r="E52" s="122"/>
+      <c r="F52" s="117">
         <v>2</v>
       </c>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="173">
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="131">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
@@ -10219,22 +10253,22 @@
       <c r="A53" s="68">
         <v>270</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="164" t="s">
+      <c r="C53" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="D53" s="165">
+      <c r="D53" s="123">
         <v>0.75</v>
       </c>
-      <c r="E53" s="164"/>
-      <c r="F53" s="158">
+      <c r="E53" s="122"/>
+      <c r="F53" s="117">
         <v>2</v>
       </c>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="173">
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="131">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
@@ -10249,22 +10283,22 @@
       <c r="A54" s="68">
         <v>280</v>
       </c>
-      <c r="B54" s="182" t="s">
+      <c r="B54" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="164" t="s">
+      <c r="C54" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="165">
+      <c r="D54" s="123">
         <v>0.25</v>
       </c>
-      <c r="E54" s="164"/>
-      <c r="F54" s="158">
+      <c r="E54" s="122"/>
+      <c r="F54" s="117">
         <v>2</v>
       </c>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="173">
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="131">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -10282,19 +10316,19 @@
       <c r="B55" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="164" t="s">
+      <c r="C55" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="165">
+      <c r="D55" s="123">
         <v>0.06</v>
       </c>
-      <c r="E55" s="164"/>
-      <c r="F55" s="158">
+      <c r="E55" s="122"/>
+      <c r="F55" s="117">
         <v>3</v>
       </c>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="173">
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="131">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
@@ -10306,25 +10340,25 @@
       <c r="O55" s="59"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="130">
+      <c r="A56" s="90">
         <v>300</v>
       </c>
-      <c r="B56" s="131" t="s">
+      <c r="B56" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="172" t="s">
+      <c r="C56" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="D56" s="165">
+      <c r="D56" s="123">
         <v>0.75</v>
       </c>
-      <c r="E56" s="164"/>
-      <c r="F56" s="158">
+      <c r="E56" s="122"/>
+      <c r="F56" s="117">
         <v>3</v>
       </c>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="173">
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="131">
         <f t="shared" si="2"/>
         <v>2.25</v>
       </c>
@@ -10336,25 +10370,25 @@
       <c r="O56" s="59"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="164">
+      <c r="A57" s="122">
         <v>310</v>
       </c>
-      <c r="B57" s="182" t="s">
+      <c r="B57" s="140" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="164" t="s">
+      <c r="C57" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="165">
+      <c r="D57" s="123">
         <v>0.25</v>
       </c>
-      <c r="E57" s="164"/>
-      <c r="F57" s="158">
+      <c r="E57" s="122"/>
+      <c r="F57" s="117">
         <v>3</v>
       </c>
-      <c r="G57" s="164"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="173">
+      <c r="G57" s="122"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="131">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
@@ -10366,27 +10400,27 @@
       <c r="O57" s="59"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="164">
+      <c r="A58" s="122">
         <v>320</v>
       </c>
-      <c r="B58" s="182" t="s">
+      <c r="B58" s="140" t="s">
         <v>209</v>
       </c>
-      <c r="C58" s="164" t="s">
+      <c r="C58" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="165">
+      <c r="D58" s="123">
         <v>0.8</v>
       </c>
-      <c r="E58" s="164" t="s">
+      <c r="E58" s="122" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="158">
+      <c r="F58" s="117">
         <v>5</v>
       </c>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="165">
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="123">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10405,7 +10439,7 @@
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="196" t="s">
+      <c r="H59" s="198" t="s">
         <v>18</v>
       </c>
       <c r="I59" s="197">
@@ -10437,34 +10471,34 @@
       <c r="O60" s="59"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="87" t="s">
+      <c r="B61" s="188" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="87" t="s">
+      <c r="D61" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="87" t="s">
+      <c r="E61" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="H61" s="87" t="s">
+      <c r="H61" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="87" t="s">
+      <c r="I61" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="87" t="s">
+      <c r="J61" s="188" t="s">
         <v>18</v>
       </c>
       <c r="K61" s="53"/>
@@ -10473,109 +10507,109 @@
       <c r="N61" s="53"/>
       <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="140">
+    <row r="62" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="100">
         <v>10</v>
       </c>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="100" t="s">
         <v>186</v>
       </c>
       <c r="D62" s="69">
         <f>0.8/105154*E62^2*G62*SQRT(G62)+(0.003*EXP(0.319*E62))</f>
         <v>6.5344202146287819E-2</v>
       </c>
-      <c r="E62" s="140">
+      <c r="E62" s="100">
         <v>6</v>
       </c>
-      <c r="F62" s="140" t="s">
+      <c r="F62" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="140">
+      <c r="G62" s="100">
         <v>30</v>
       </c>
-      <c r="H62" s="140" t="s">
+      <c r="H62" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="140">
+      <c r="I62" s="100">
         <v>28</v>
       </c>
-      <c r="J62" s="139">
+      <c r="J62" s="99">
         <f t="shared" ref="J62:J64" si="3">I62*D62</f>
         <v>1.8296376600960589</v>
       </c>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="137"/>
-    </row>
-    <row r="63" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="140">
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="97"/>
+    </row>
+    <row r="63" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="100">
         <v>20</v>
       </c>
-      <c r="B63" s="140" t="s">
+      <c r="B63" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="140" t="s">
+      <c r="C63" s="100" t="s">
         <v>186</v>
       </c>
       <c r="D63" s="69">
         <v>0.01</v>
       </c>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140">
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100">
         <v>56</v>
       </c>
-      <c r="J63" s="139">
+      <c r="J63" s="99">
         <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="137"/>
-    </row>
-    <row r="64" spans="1:15" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="140">
+      <c r="K63" s="96"/>
+      <c r="L63" s="96"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="96"/>
+      <c r="O63" s="97"/>
+    </row>
+    <row r="64" spans="1:15" s="98" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="100">
         <v>30</v>
       </c>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="140" t="s">
+      <c r="C64" s="100" t="s">
         <v>186</v>
       </c>
       <c r="D64" s="69">
         <f>(0.009*EXP(0.2*E64))</f>
         <v>2.9881052304628931E-2</v>
       </c>
-      <c r="E64" s="140">
+      <c r="E64" s="100">
         <v>6</v>
       </c>
-      <c r="F64" s="140" t="s">
+      <c r="F64" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140">
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100">
         <v>28</v>
       </c>
-      <c r="J64" s="139">
+      <c r="J64" s="99">
         <f t="shared" si="3"/>
         <v>0.83666946452961011</v>
       </c>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="137"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="97"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="63"/>
@@ -10586,10 +10620,10 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="88" t="s">
+      <c r="I65" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="J65" s="89">
+      <c r="J65" s="192">
         <f>SUM(J62:J64)</f>
         <v>3.2263071246256692</v>
       </c>
@@ -10617,31 +10651,31 @@
       <c r="O66" s="59"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="87" t="s">
+      <c r="E67" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="H67" s="87" t="s">
+      <c r="H67" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="87" t="s">
+      <c r="I67" s="188" t="s">
         <v>18</v>
       </c>
       <c r="J67" s="20"/>
@@ -10696,10 +10730,10 @@
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="91" t="s">
+      <c r="H69" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="92">
+      <c r="I69" s="196">
         <f>SUM(I68:I68)</f>
         <v>9.3333333333333339</v>
       </c>
@@ -10745,14 +10779,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" location="MS_0100_001" display="Firewall up"/>
-    <hyperlink ref="B11" location="MS_0100_002" display="Firewall Middle"/>
-    <hyperlink ref="B12" location="MS_0100_003" display="Firewall Bottom"/>
-    <hyperlink ref="B13" location="MS_0100_004" display="Firewall Upper Side"/>
-    <hyperlink ref="B14" location="MS_0100_005" display="Firewall Middle Side"/>
-    <hyperlink ref="B15" location="MS_0100_006" display="Firewall Lower Side"/>
-    <hyperlink ref="B16" location="MS_0100_007" display="Firewall Up Bracket"/>
-    <hyperlink ref="B17" location="MS_0100_008" display="Firewall Middle, Bottom and Sides Bracket"/>
+    <hyperlink ref="B10" location="MS_0100_001" display="Firewall up" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B11" location="MS_0100_002" display="Firewall Middle" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B12" location="MS_0100_003" display="Firewall Bottom" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B13" location="MS_0100_004" display="Firewall Upper Side" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B14" location="MS_0100_005" display="Firewall Middle Side" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B15" location="MS_0100_006" display="Firewall Lower Side" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B16" location="MS_0100_007" display="Firewall Up Bracket" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B17" location="MS_0100_008" display="Firewall Middle, Bottom and Sides Bracket" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -10766,21 +10800,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875"/>
     <col min="2" max="2" width="33.44140625"/>
     <col min="3" max="3" width="23"/>
-    <col min="4" max="6" width="10.5546875"/>
+    <col min="4" max="4" width="10.5546875"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875"/>
     <col min="7" max="7" width="31" customWidth="1"/>
     <col min="8" max="8" width="10.5546875"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
@@ -10809,7 +10847,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -10824,14 +10862,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -10841,7 +10879,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -10849,7 +10887,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -10862,7 +10900,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -10871,7 +10909,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -10879,7 +10917,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -10887,7 +10925,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -10897,14 +10935,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -10912,12 +10950,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -10927,7 +10965,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -10940,7 +10978,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -10950,7 +10988,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -10971,7 +11009,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -11009,46 +11047,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -11064,14 +11102,19 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>1.179237264</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <v>0.21741099999999999</v>
       </c>
       <c r="K11" s="17">
@@ -11102,10 +11145,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>4.9527965088000006</v>
       </c>
@@ -11129,31 +11172,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -11164,23 +11207,23 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="193">
+      <c r="A15" s="151">
         <v>10</v>
       </c>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194">
+      <c r="C15" s="151"/>
+      <c r="D15" s="152">
         <v>1.3</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="195">
+      <c r="F15" s="153">
         <v>1</v>
       </c>
-      <c r="G15" s="193"/>
+      <c r="G15" s="151"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30">
         <f t="shared" ref="I15:I17" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
@@ -11194,30 +11237,30 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165">
+      <c r="C16" s="122"/>
+      <c r="D16" s="123">
         <v>0.01</v>
       </c>
-      <c r="E16" s="164" t="s">
+      <c r="E16" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="190">
+      <c r="F16" s="148">
         <f>193.7+4*2*PI()*0.3</f>
         <v>201.23982236861548</v>
       </c>
-      <c r="G16" s="182" t="s">
+      <c r="G16" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="184">
+      <c r="H16" s="142">
         <v>1</v>
       </c>
-      <c r="I16" s="173">
+      <c r="I16" s="131">
         <f t="shared" si="0"/>
         <v>2.0123982236861546</v>
       </c>
@@ -11229,25 +11272,25 @@
       <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="164">
+      <c r="A17" s="122">
         <v>30</v>
       </c>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165">
+      <c r="C17" s="122"/>
+      <c r="D17" s="123">
         <v>0.25</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="190">
+      <c r="F17" s="148">
         <v>4</v>
       </c>
-      <c r="G17" s="182"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="165">
+      <c r="G17" s="140"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="123">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -11266,10 +11309,10 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="185">
         <f>SUM(I15:I17)</f>
         <v>4.3123982236861549</v>
       </c>
@@ -11316,8 +11359,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_001!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_001!A1" display="Drawing" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="43" firstPageNumber="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11333,9 +11376,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
@@ -11351,16 +11394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="103" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_001!A1" display="FR_0300_000"/>
+    <hyperlink ref="B1" location="MS_0100_001!A1" display="FR_0300_000" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -11369,14 +11412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H17" activeCellId="8" sqref="D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11384,6 +11427,7 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" customWidth="1"/>
     <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
@@ -11408,7 +11452,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -11423,14 +11467,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -11440,7 +11484,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -11448,7 +11492,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -11461,7 +11505,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -11470,7 +11514,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -11478,7 +11522,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -11486,7 +11530,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -11496,14 +11540,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -11511,12 +11555,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -11526,7 +11570,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -11539,7 +11583,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -11549,7 +11593,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -11570,7 +11614,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -11608,46 +11652,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -11663,14 +11707,19 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>1.022689776</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="144">
+      <c r="J11" s="104">
         <v>0.18854899999999999</v>
       </c>
       <c r="K11" s="17">
@@ -11701,10 +11750,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>4.2952970592000002</v>
       </c>
@@ -11728,31 +11777,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -11763,20 +11812,20 @@
       <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191">
+      <c r="A15" s="149">
         <v>10</v>
       </c>
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="192"/>
+      <c r="C15" s="150"/>
       <c r="D15" s="30">
         <v>1.3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29"/>
@@ -11793,20 +11842,20 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164">
+      <c r="A16" s="122">
         <v>20</v>
       </c>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="164"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="28">
         <v>0.01</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="102">
         <f>187.2+4*2*PI()*0.3</f>
         <v>194.73982236861548</v>
       </c>
@@ -11835,10 +11884,10 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="123" t="s">
+      <c r="H17" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="121">
+      <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
         <v>3.2473982236861549</v>
       </c>
@@ -11868,17 +11917,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_002!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_002!A1" display="Drawing" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -11891,16 +11940,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="103" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_002!A1" display="FR_0300_001"/>
+    <hyperlink ref="B1" location="MS_0100_002!A1" display="FR_0300_001" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11908,19 +11957,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I18" activeCellId="10" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H18 I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.77734375" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.109375" customWidth="1"/>
@@ -11944,7 +11994,7 @@
       <c r="O1" s="58"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="178" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -11959,14 +12009,14 @@
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="179" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="73">
         <v>81</v>
       </c>
       <c r="L2" s="53"/>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="178" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="69">
@@ -11976,7 +12026,7 @@
       <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="11" t="str">
@@ -11984,7 +12034,7 @@
         <v>Frame and Body</v>
       </c>
       <c r="C3" s="53"/>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="178" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="79" t="s">
@@ -11997,7 +12047,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="53"/>
       <c r="L3" s="53"/>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="178" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="72">
@@ -12006,7 +12056,7 @@
       <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="178" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="78" t="str">
@@ -12014,7 +12064,7 @@
         <v>Firewall</v>
       </c>
       <c r="C4" s="53"/>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="178" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="53"/>
@@ -12022,7 +12072,7 @@
       <c r="G4" s="53"/>
       <c r="H4" s="53"/>
       <c r="I4" s="53"/>
-      <c r="J4" s="116" t="s">
+      <c r="J4" s="180" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="53"/>
@@ -12032,14 +12082,14 @@
       <c r="O4" s="59"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="53"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="178" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="53"/>
@@ -12047,12 +12097,12 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
-      <c r="J5" s="116" t="s">
+      <c r="J5" s="180" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="53"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="178" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="69">
@@ -12062,7 +12112,7 @@
       <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="178" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -12075,7 +12125,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53"/>
-      <c r="J6" s="116" t="s">
+      <c r="J6" s="180" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="53"/>
@@ -12085,7 +12135,7 @@
       <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="178" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -12106,7 +12156,7 @@
       <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="178" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -12144,46 +12194,46 @@
       <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="119" t="s">
+      <c r="H10" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="119" t="s">
+      <c r="I10" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="119" t="s">
+      <c r="J10" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="119" t="s">
+      <c r="K10" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="119" t="s">
+      <c r="L10" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="119" t="s">
+      <c r="N10" s="183" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="59"/>
@@ -12199,14 +12249,19 @@
       <c r="D11" s="28">
         <v>4.2</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="155">
+        <f>J11*K11*L11</f>
+        <v>1.6257517920000002</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="105">
         <v>0.29973300000000003</v>
       </c>
       <c r="K11" s="17">
@@ -12237,10 +12292,10 @@
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="120" t="s">
+      <c r="M12" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="121">
+      <c r="N12" s="185">
         <f>SUM(N11:N11)</f>
         <v>6.828157526400001</v>
       </c>
@@ -12264,31 +12319,31 @@
       <c r="O13" s="59"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="119" t="s">
+      <c r="E14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="119" t="s">
+      <c r="F14" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="119" t="s">
+      <c r="H14" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="119" t="s">
+      <c r="I14" s="183" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="20"/>
@@ -12302,7 +12357,7 @@
       <c r="A15" s="76">
         <v>10</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="94" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="29"/>
@@ -12312,7 +12367,7 @@
       <c r="E15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="101">
         <v>1</v>
       </c>
       <c r="G15" s="29"/>
@@ -12329,30 +12384,30 @@
       <c r="O15" s="64"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="188">
+      <c r="A16" s="146">
         <v>20</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="173">
+      <c r="C16" s="130"/>
+      <c r="D16" s="131">
         <v>0.01</v>
       </c>
-      <c r="E16" s="172" t="s">
+      <c r="E16" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="189">
+      <c r="F16" s="147">
         <f>218.8+4*2*PI()*0.3</f>
         <v>226.3398223686155</v>
       </c>
-      <c r="G16" s="183" t="s">
+      <c r="G16" s="141" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="184">
+      <c r="H16" s="142">
         <v>1</v>
       </c>
-      <c r="I16" s="173">
+      <c r="I16" s="131">
         <f t="shared" si="0"/>
         <v>2.263398223686155</v>
       </c>
@@ -12364,25 +12419,25 @@
       <c r="O16" s="59"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="164">
+      <c r="A17" s="122">
         <v>30</v>
       </c>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="119" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="165">
+      <c r="C17" s="122"/>
+      <c r="D17" s="123">
         <v>0.25</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="190">
+      <c r="F17" s="148">
         <v>3</v>
       </c>
-      <c r="G17" s="182"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="165">
+      <c r="G17" s="140"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="123">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -12401,10 +12456,10 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="123" t="s">
+      <c r="H18" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="185">
         <f>SUM(I15:I17)</f>
         <v>4.3133982236861552</v>
       </c>
@@ -12434,17 +12489,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1"/>
-    <hyperlink ref="E3" location="dMS_0100_003!A1" display="Drawing"/>
+    <hyperlink ref="B4" location="MS_A0100!A1" display="MS_A0100!A1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E3" location="dMS_0100_003!A1" display="Drawing" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF99FF"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -12464,7 +12519,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="MS_0100_003!A1" display="FR_0300_002"/>
+    <hyperlink ref="B1" location="MS_0100_003!A1" display="FR_0300_002" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
+++ b/MS - Miscellanous, Finish & Assembly/Cost/MS_A0100.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dossiers\ECL\Cours\EPSA\Github\MS - Miscellanous, Finish &amp; Assembly\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D0724D4-73B2-4A37-8F85-4F8614470C89}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB6879FE-60A3-42CE-BDB0-8F2F77B1F800}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="217">
   <si>
     <t>University</t>
   </si>
@@ -864,6 +864,9 @@
   </si>
   <si>
     <t>Steel, Alloy (kg)</t>
+  </si>
+  <si>
+    <t>24 parts made from the same plate</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1609,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
@@ -1962,6 +1965,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3143,7 +3147,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3684,7 +3688,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4227,7 +4231,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" activeCellId="9" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5313,7 +5317,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" activeCellId="11" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12 N12 A14:I14 I17 H17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5371,7 +5375,7 @@
       </c>
       <c r="N2" s="69">
         <f>MS_0100_008_m+MS_0100_008_p</f>
-        <v>0.64982088688329431</v>
+        <v>0.37898755354996111</v>
       </c>
       <c r="O2" s="59"/>
     </row>
@@ -5457,7 +5461,7 @@
       </c>
       <c r="N5" s="69">
         <f>N3*N2</f>
-        <v>15.595701285199063</v>
+        <v>9.0957012851990662</v>
       </c>
       <c r="O5" s="59"/>
     </row>
@@ -5722,14 +5726,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0.25</v>
+        <v>216</v>
+      </c>
+      <c r="H15" s="101">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I15" s="30">
         <f t="shared" ref="I15:I16" si="0">IF(H15="",D15*F15,D15*F15*H15)</f>
-        <v>0.32500000000000001</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="J15" s="55"/>
       <c r="K15" s="55"/>
@@ -5785,7 +5790,7 @@
       </c>
       <c r="I17" s="185">
         <f>SUM(I15:I16)</f>
-        <v>0.63759999999999994</v>
+        <v>0.36676666666666669</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -5817,6 +5822,7 @@
     <hyperlink ref="E3" location="dMS_0100_008!A1" display="Drawing" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5857,7 +5863,7 @@
   </sheetPr>
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
@@ -6407,7 +6413,7 @@
       <c r="G15" s="177"/>
       <c r="H15" s="169">
         <f t="shared" si="0"/>
-        <v>0.64982088688329431</v>
+        <v>0.37898755354996111</v>
       </c>
       <c r="I15" s="170">
         <f>MS_A0100_q*MS_0100_008_q</f>
@@ -6419,7 +6425,7 @@
       </c>
       <c r="K15" s="171">
         <f>MS_0100_008_p</f>
-        <v>0.63759999999999994</v>
+        <v>0.36676666666666669</v>
       </c>
       <c r="L15" s="171">
         <v>0</v>
@@ -6429,7 +6435,7 @@
       </c>
       <c r="N15" s="172">
         <f t="shared" si="1"/>
-        <v>15.595701285199063</v>
+        <v>9.0957012851990662</v>
       </c>
       <c r="O15" s="173"/>
     </row>
@@ -6454,7 +6460,7 @@
       </c>
       <c r="K16" s="114">
         <f>SUMPRODUCT($I7:$I15,K7:K15)</f>
-        <v>95.382148671058445</v>
+        <v>88.882148671058459</v>
       </c>
       <c r="L16" s="114">
         <f>SUMPRODUCT($I7:$I15,L7:L15)</f>
@@ -6466,7 +6472,7 @@
       </c>
       <c r="N16" s="114">
         <f>SUM(N7:N15)</f>
-        <v>134.3077968189491</v>
+        <v>127.8077968189491</v>
       </c>
       <c r="O16" s="115"/>
     </row>
@@ -8719,9 +8725,7 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C86" sqref="C85:C86"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8785,7 +8789,7 @@
       </c>
       <c r="N2" s="85">
         <f>MS_A0100_pa+MS_A0100_m+MS_A0100_p+MS_A0100_f+MS_A0100_t</f>
-        <v>134.30779681894907</v>
+        <v>127.80779681894909</v>
       </c>
       <c r="O2" s="59"/>
     </row>
@@ -8861,7 +8865,7 @@
       </c>
       <c r="N5" s="69">
         <f>N2*N3</f>
-        <v>134.30779681894907</v>
+        <v>127.80779681894909</v>
       </c>
       <c r="O5" s="59"/>
     </row>
@@ -9172,7 +9176,7 @@
       </c>
       <c r="C17" s="87">
         <f>MS_0100_008!N2</f>
-        <v>0.64982088688329431</v>
+        <v>0.37898755354996111</v>
       </c>
       <c r="D17" s="68">
         <f>MS_0100_008_q</f>
@@ -9180,7 +9184,7 @@
       </c>
       <c r="E17" s="69">
         <f t="shared" si="0"/>
-        <v>15.595701285199063</v>
+        <v>9.0957012851990662</v>
       </c>
       <c r="F17" s="54"/>
       <c r="G17" s="54"/>
@@ -9202,7 +9206,7 @@
       </c>
       <c r="E18" s="192">
         <f>SUM(E10:E17)</f>
-        <v>66.991762360990094</v>
+        <v>60.491762360990109</v>
       </c>
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
@@ -10808,7 +10812,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11285,7 +11289,7 @@
       <c r="E17" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="148">
+      <c r="F17" s="200">
         <v>4</v>
       </c>
       <c r="G17" s="140"/>
@@ -11419,7 +11423,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" activeCellId="8" sqref="D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H17:I17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11964,7 +11968,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" activeCellId="10" sqref="A2:A8 D3:D5 J2 J4:J6 M2:M3 M5 A10:N10 M12:N12 A14:I14 H18 I18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12432,7 +12436,7 @@
       <c r="E17" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="148">
+      <c r="F17" s="200">
         <v>3</v>
       </c>
       <c r="G17" s="140"/>
@@ -12503,9 +12507,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
